--- a/report/summary_XAUUSD_M5_2020-2023_0.xlsx
+++ b/report/summary_XAUUSD_M5_2020-2023_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,39 +486,39 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1872.959999999994</v>
+        <v>4694.190000000024</v>
       </c>
       <c r="L2">
-        <v>16303</v>
+        <v>42418</v>
       </c>
       <c r="M2">
-        <v>-28.33999999999992</v>
+        <v>-27.29999999999995</v>
       </c>
       <c r="N2">
-        <v>1844.619999999994</v>
+        <v>4666.890000000024</v>
       </c>
       <c r="O2">
-        <v>0.4859841746917745</v>
+        <v>0.4657928238012164</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>1101.19</v>
+        <v>3407.860000000024</v>
       </c>
       <c r="L3">
-        <v>15278</v>
+        <v>41919</v>
       </c>
       <c r="M3">
-        <v>-28.33999999999992</v>
+        <v>-98.73000000000002</v>
       </c>
       <c r="N3">
-        <v>1072.85</v>
+        <v>3309.130000000024</v>
       </c>
       <c r="O3">
-        <v>0.3510276214164157</v>
+        <v>0.3503184713375796</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,33 +580,315 @@
         <v>2023</v>
       </c>
       <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1893.219999999993</v>
+      </c>
+      <c r="L4">
+        <v>11048</v>
+      </c>
+      <c r="M4">
+        <v>-25.49000000000001</v>
+      </c>
+      <c r="N4">
+        <v>1867.729999999993</v>
+      </c>
+      <c r="O4">
+        <v>0.3344496741491673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>1.9</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>1872.959999999994</v>
+      </c>
+      <c r="L5">
+        <v>16303</v>
+      </c>
+      <c r="M5">
+        <v>-28.33999999999992</v>
+      </c>
+      <c r="N5">
+        <v>1844.619999999994</v>
+      </c>
+      <c r="O5">
+        <v>0.4859841746917745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>1316.050000000035</v>
+      </c>
+      <c r="L6">
+        <v>52746</v>
+      </c>
+      <c r="M6">
+        <v>-24.71000000000004</v>
+      </c>
+      <c r="N6">
+        <v>1291.340000000035</v>
+      </c>
+      <c r="O6">
+        <v>0.4664429530201342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3.5</v>
+      </c>
+      <c r="K7">
+        <v>1101.19</v>
+      </c>
+      <c r="L7">
+        <v>15278</v>
+      </c>
+      <c r="M7">
+        <v>-28.33999999999992</v>
+      </c>
+      <c r="N7">
+        <v>1072.85</v>
+      </c>
+      <c r="O7">
+        <v>0.3510276214164157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>3.5</v>
+      </c>
+      <c r="K8">
+        <v>942.3899999999981</v>
+      </c>
+      <c r="L8">
+        <v>11112</v>
+      </c>
+      <c r="M8">
+        <v>-25.49000000000001</v>
+      </c>
+      <c r="N8">
+        <v>916.899999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.3416126709863211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>3.4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4.5</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>938.2599999999991</v>
+      </c>
+      <c r="L9">
+        <v>6884</v>
+      </c>
+      <c r="M9">
+        <v>-27.38000000000011</v>
+      </c>
+      <c r="N9">
+        <v>910.879999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.3987507263219059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G10">
         <v>2.600000000000001</v>
       </c>
-      <c r="H4">
+      <c r="H10">
         <v>3.5</v>
       </c>
-      <c r="I4">
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J10">
         <v>3.5</v>
       </c>
-      <c r="K4">
+      <c r="K10">
         <v>-268.2200000000159</v>
       </c>
-      <c r="L4">
+      <c r="L10">
         <v>10200</v>
       </c>
-      <c r="M4">
+      <c r="M10">
         <v>-101.6400000000001</v>
       </c>
-      <c r="N4">
+      <c r="N10">
         <v>-369.860000000016</v>
       </c>
-      <c r="O4">
+      <c r="O10">
         <v>0.3469607843137255</v>
       </c>
     </row>
